--- a/rebo.xlsx
+++ b/rebo.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A26"/>
+  <dimension ref="A1:A47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,70 +424,70 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>le: 2023-08-17 13:34:39.793415</t>
+          <t>le: 2023-08-23 11:13:59.243125</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>le: 2023-08-17 13:35:15.907474</t>
+          <t>Trajet: Tanger Ville - Tarifa</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>le: 2023-08-17 13:41:18.289014</t>
+          <t>Company: FRS</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Trajet: Tanger Ville - Tarifa</t>
+          <t>40,25 €</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Company: FRS</t>
+          <t>le: 2023-08-23 11:14:32.802507</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>40,25 €</t>
+          <t>Trajet: Ceuta - Algésiras</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>le: 2023-08-17 13:41:52.419723</t>
+          <t>le: 2023-08-23 11:15:06.151226</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Trajet: Ceuta - Algésiras</t>
+          <t>Trajet: Tanger Med - Algésiras</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Company: Naviera Armas Trasmediterranea</t>
+          <t>le: 2023-08-23 11:15:42.221159</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>34,90 €</t>
+          <t>Trajet: Tanger Ville - Tarifa</t>
         </is>
       </c>
     </row>
@@ -501,105 +501,252 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>35,00 €</t>
+          <t>le: 2023-08-23 11:16:19.920180</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Company: Balearia</t>
+          <t>Trajet: Ceuta - Algésiras</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>38,00 €</t>
+          <t>le: 2023-08-23 11:16:57.502660</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>le: 2023-08-17 13:42:26.311289</t>
+          <t>Trajet: Tanger Med - Algésiras</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Trajet: Tanger Med - Algésiras</t>
+          <t>le: 2023-08-23 11:17:37.001871</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>le: 2023-08-17 13:43:04.079846</t>
+          <t>Trajet: Tanger Ville - Tarifa</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Trajet: Tanger Ville - Tarifa</t>
+          <t>Company: FRS</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Company: FRS</t>
+          <t>le: 2023-08-23 11:18:31.823219</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>le: 2023-08-17 13:43:42.028671</t>
+          <t>Trajet: Ceuta - Algésiras</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Trajet: Ceuta - Algésiras</t>
+          <t>le: 2023-08-23 11:19:26.722312</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Company: FRS</t>
+          <t>Trajet: Tanger Med - Algésiras</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Company: Naviera Armas Trasmediterranea</t>
+          <t>le: 2023-08-23 11:25:06.341303</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>102,00 €</t>
+          <t>Trajet: Tarifa - Tanger Ville</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Company: Balearia</t>
+          <t>Company: FRS</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>104,99 €</t>
+          <t>211,95 €</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>le: 2023-08-23 11:25:46.100255</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Trajet: Algésiras - Ceuta</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>le: 2023-08-23 11:26:26.666711</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Trajet: Algésiras - Tanger Med</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>le: 2023-08-23 11:27:07.753039</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Trajet: Tarifa - Tanger Ville</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Company: FRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>211,95 €</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>le: 2023-08-23 11:27:44.648501</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Trajet: Algésiras - Ceuta</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>le: 2023-08-23 11:28:21.915377</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Trajet: Algésiras - Tanger Med</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>le: 2023-08-23 11:29:00.481219</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Trajet: Tarifa - Tanger Ville</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Company: FRS</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>332,70 €</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>le: 2023-08-23 11:29:55.150008</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Trajet: Algésiras - Tanger Med</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Company: Balearia</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Company: Naviera Armas Trasmediterranea</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>180,17 €</t>
         </is>
       </c>
     </row>

--- a/rebo.xlsx
+++ b/rebo.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A22"/>
+  <dimension ref="A1:A61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -575,6 +575,279 @@
         </is>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>le: 2024-02-13 21:12:21.651504</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Trajet: 38,43 €</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Company: Naviera Armas Trasmediterranea</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>le: 2024-02-14 22:01:49.964481</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>le: 2024-02-14 22:02:31.880926</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>le: 2024-02-14 22:03:04.864308</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Trajet: 27,50 €</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Company: FRS DFDS</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>le: 2024-02-14 22:03:40.857585</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Trajet: Tanger Ville - Tarifa</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>le: 2024-02-14 22:04:21.686017</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Trajet: Ceuta - Algésiras</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>le: 2024-02-14 22:04:58.033207</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Trajet: Tanger Med - Algésiras</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>le: 2024-02-14 22:05:36.537243</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>le: 2024-02-14 22:06:31.886929</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>le: 2024-02-14 22:07:27.128459</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Trajet: 242,00 €</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Company: FRS DFDS</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>le: 2024-02-14 22:53:43.039338</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Trajet: Tanger Ville - Tarifa</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>le: 2024-02-14 22:54:16.703772</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Trajet: Ceuta - Algésiras</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>le: 2024-02-14 22:54:50.524352</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Trajet: Tanger Med - Algésiras</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Company: FRS DFDS</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>27,50 €</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>le: 2024-02-14 22:55:25.571964</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Trajet: Tanger Ville - Tarifa</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>le: 2024-02-14 22:56:07.077496</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Trajet: Ceuta - Algésiras</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>le: 2024-02-14 22:56:42.551888</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Trajet: Tanger Med - Algésiras</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Company: FRS DFDS</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>159,50 €</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>le: 2024-02-14 22:57:20.054774</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Trajet: Tanger Ville - Tarifa</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>le: 2024-02-14 22:58:20.434720</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Trajet: Ceuta - Algésiras</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/rebo.xlsx
+++ b/rebo.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A61"/>
+  <dimension ref="A1:A174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -848,6 +848,797 @@
         </is>
       </c>
     </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>le: 2024-02-14 22:59:14.659352</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Trajet: Tanger Med - Algésiras</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>le: 2024-02-14 23:20:50.960020</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Trajet: Tarifa - Tanger Ville</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Company: FRS DFDS</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>le: 2024-03-05 15:11:37.311934</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Trajet: Tanger Ville - Tarifa</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Company: FRS DFDS</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>40,25 €</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>le: 2024-03-05 15:12:26.049651</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Trajet: Ceuta - Algésiras</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Company: Balearia</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>35,00 €</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Company: FRS DFDS</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>36,00 €</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Company: Naviera Armas Trasmediterranea</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>36,93 €</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>le: 2024-03-05 15:13:02.013957</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Trajet: Tanger Med - Algésiras</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Company: AML - Africa Moroco Link</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>23,00 €</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Company: Balearia</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>29,00 €</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Company: FRS DFDS</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>29,00 €</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Company: Naviera Armas Trasmediterranea</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>32,28 €</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>le: 2024-03-05 15:13:42.997202</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Trajet: Tanger Ville - Tarifa</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Company: FRS DFDS</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>211,95 €</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>le: 2024-03-05 15:14:22.705512</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>le: 2024-03-05 15:14:39.867817</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>le: 2024-03-07 10:51:45.330733</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Trajet: Tanger Ville - Tarifa</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Company: FRS DFDS</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>40,25 €</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>le: 2024-03-07 10:52:32.736157</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Trajet: Ceuta - Algésiras</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Company: Balearia</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>35,00 €</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Company: FRS DFDS</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>36,00 €</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Company: Naviera Armas Trasmediterranea</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>36,93 €</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>le: 2024-03-07 10:53:13.527977</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>le: 2024-03-07 11:19:21.558608</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Trajet: Tanger Ville</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>(Maroc)</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>le: 2024-03-07 11:20:10.005103</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Trajet: Ceuta - Algésiras</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Company: Balearia</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>35,00 €</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Company: FRS DFDS</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>36,00 €</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Company: Naviera Armas Trasmediterranea</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>36,93 €</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>le: 2024-03-07 11:20:52.266872</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Trajet: Tanger Med - Algésiras</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Company: AML - Africa Moroco Link</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>23,00 €</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Company: FRS DFDS</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>29,00 €</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Company: Naviera Armas Trasmediterranea</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>32,28 €</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Company: Balearia</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>38,00 €</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>le: 2024-03-07 11:21:33.905635</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Trajet: Tanger Ville - Tarifa</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Company: FRS DFDS</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>211,95 €</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>le: 2024-03-07 11:22:18.240725</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Trajet: Ceuta - Algésiras</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Company: FRS DFDS</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>74,00 €</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Company: Balearia</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>74,80 €</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Company: Naviera Armas Trasmediterranea</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>76,82 €</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>le: 2024-03-07 11:23:06.621255</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Trajet: Tanger Med - Algésiras</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Company: AML - Africa Moroco Link</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>125,00 €</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Company: FRS DFDS</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>161,00 €</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Company: Naviera Armas Trasmediterranea</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>164,39 €</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Company: Balearia</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>199,00 €</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>le: 2024-03-07 11:23:53.310824</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Trajet: Tanger Ville - Tarifa</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Company: FRS DFDS</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>332,70 €</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>le: 2024-03-07 11:25:01.110138</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Trajet: Ceuta - Algésiras</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Company: Balearia</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Company: FRS DFDS</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>182,00 €</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Company: Naviera Armas Trasmediterranea</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>187,61 €</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>le: 2024-03-07 11:26:03.168939</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Trajet: Tanger Med - Algésiras</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Company: Balearia</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Company: AML - Africa Moroco Link</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>188,00 €</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Company: FRS DFDS</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>248,00 €</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Company: Naviera Armas Trasmediterranea</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>261,23 €</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>le: 2024-05-10 11:58:04.699792</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Trajet: Tanger Ville - Tarifa</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Company: FRS DFDS</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>40,25 €</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
